--- a/laba9_1/asd.xlsx
+++ b/laba9_1/asd.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88CF3ED-3A2E-4F8A-84B0-65A68710C18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -49,13 +50,45 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -79,8 +112,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -174,6 +219,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -209,6 +271,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -384,36 +463,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="2:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1290</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
@@ -421,10 +500,10 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="B5" s="3">
         <v>764</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
@@ -432,10 +511,10 @@
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="B6" s="3">
         <v>6526</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D6" t="s">
@@ -444,5 +523,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/laba9_1/asd.xlsx
+++ b/laba9_1/asd.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D88CF3ED-3A2E-4F8A-84B0-65A68710C18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -219,23 +218,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -271,23 +253,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -463,7 +428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
